--- a/KDB.xlsx
+++ b/KDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\DFS\JPHQ\AL\BUSUNITS\AL-Finance\Fin-FRA\JDE\02_AP\0356_KDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ED4B28-7AB8-4C58-A332-7388E85ABF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA58E9F-3F93-4CBF-B807-D8949F4FA92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4932,10 +4932,10 @@
   <dimension ref="A1:H9998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C716" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A728" sqref="A728"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
